--- a/Totalligent.UI/Uploads/ProducerMaster.xlsx
+++ b/Totalligent.UI/Uploads/ProducerMaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B792D1E3-5D13-4F2B-9F2B-79F22D53BA65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D53980-4E8A-462B-B62F-BB4BC70ACAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAE046E-C136-4222-A1E3-F019F3BBDED6}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>AON Majan</t>
   </si>
   <si>
-    <t>Modern Gulf Insurance Services</t>
-  </si>
-  <si>
     <t>Nizwa Window</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>FASTERZ</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
     <t>EmailId</t>
   </si>
   <si>
@@ -54,55 +48,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Agent</t>
   </si>
   <si>
-    <t>Broker</t>
-  </si>
-  <si>
     <t>Branches</t>
   </si>
   <si>
     <t>DirectSales</t>
   </si>
   <si>
-    <t>B00101</t>
-  </si>
-  <si>
-    <t>BR99939</t>
-  </si>
-  <si>
-    <t>DIRC099</t>
-  </si>
-  <si>
-    <t>AG0393</t>
-  </si>
-  <si>
-    <t>AG00167</t>
-  </si>
-  <si>
-    <t>jsdkfsa</t>
-  </si>
-  <si>
-    <t>sdafklj</t>
-  </si>
-  <si>
-    <t>ewrui</t>
-  </si>
-  <si>
-    <t>daslkfajl</t>
-  </si>
-  <si>
-    <t>sadkhfajsd</t>
-  </si>
-  <si>
     <t>ilayaraja@totalligent.com</t>
-  </si>
-  <si>
-    <t>murali@totalligent.com</t>
   </si>
   <si>
     <t>sathishhn2005@gmail.com</t>
@@ -185,10 +140,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -507,128 +461,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C431FF-39D5-4E44-9EE8-AB3F1A4328CA}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{56249E8F-9BD2-413F-A165-0F44D3EEA707}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{EC5D8948-1E35-4994-9CA4-6BFEF29CB67B}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{220CABA7-4FDA-4484-BE2A-A722DD3B0C0C}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{56249E8F-9BD2-413F-A165-0F44D3EEA707}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{EC5D8948-1E35-4994-9CA4-6BFEF29CB67B}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{220CABA7-4FDA-4484-BE2A-A722DD3B0C0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
